--- a/Metro_Data.xlsx
+++ b/Metro_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/693caa84c05ce21e/Documents/MTP Stage-02 June 2025/Working/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omi5t\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1337" documentId="11_FFC65FC02229AECA0E170B74CB3177DB5E073719" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E28EBD9F-03FB-4453-A01C-3DFD0DDA65CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0576E39-33B1-4794-BFA6-34059E8327DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="569" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <t>hmrl</t>
   </si>
   <si>
-    <t>total_civil_cost_crore</t>
+    <t>civil_cost</t>
   </si>
 </sst>
 </file>
@@ -484,10 +484,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW3" sqref="A3:AW3"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
